--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.13_Student_Right_Q_Sheet .xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.13_Student_Right_Q_Sheet .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Compro Technologies Dropbox\Urja Saxena\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5D0093-99E0-4971-A84D-68F2F2269076}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AC75CF-4F12-46C7-BCC7-DD7ABBAF6A7B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Fees Earned</t>
+  </si>
+  <si>
+    <t>7/2</t>
   </si>
 </sst>
 </file>
@@ -145,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +165,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
@@ -254,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,10 +618,10 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6">
         <v>250</v>
@@ -617,68 +629,68 @@
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="12">
         <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>450</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="C4" s="6">
+        <v>250</v>
+      </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2">
-        <v>450</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -689,40 +701,40 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2">
-        <v>600</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2">
-        <v>150</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -733,106 +745,106 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>750</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="2">
-        <v>750</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>750</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2">
-        <v>20</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2">
-        <v>3800</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2">
-        <v>3800</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2">
-        <v>145</v>
+        <v>3800</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2">
-        <v>145</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>600</v>
+        <v>145</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -843,18 +855,18 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2">
-        <v>600</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -865,33 +877,39 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
         <v>700</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2">
+        <v>700</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="A28" s="10"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="A29" s="9"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
@@ -941,26 +959,42 @@
         <v>0</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.13_Student_Right_Q_Sheet .xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.13_Student_Right_Q_Sheet .xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AC75CF-4F12-46C7-BCC7-DD7ABBAF6A7B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE59B7A9-D1AF-4603-BCF8-9350C4CEA2AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
@@ -266,6 +266,30 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="4" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,94 +933,95 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
